--- a/DataTables/FACTURACION/EmitirFacturaSacsa.xlsx
+++ b/DataTables/FACTURACION/EmitirFacturaSacsa.xlsx
@@ -2,50 +2,631 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlborAutomation\albor\DataTables\FACTURACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlborAutomation\albor\DataTables\Facturacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15257CCF-1436-4698-A070-E5800B4EDE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F12C9D-08F5-4788-8C8E-83DCA20A17BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="conceptoFijo" sheetId="3" r:id="rId3"/>
+    <sheet name="conceptoVariable" sheetId="4" r:id="rId4"/>
+    <sheet name="conceptoMovilidad" sheetId="5" r:id="rId5"/>
+    <sheet name="conceptoRecuperos" sheetId="6" r:id="rId6"/>
+    <sheet name="conceptoAnticipos" sheetId="7" r:id="rId7"/>
+    <sheet name="Traductor_iva" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Traductor_centroCosto" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="Traductor_cliente" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="Padrones" sheetId="11" state="hidden" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">conceptoAnticipos!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">conceptoFijo!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">conceptoMovilidad!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">conceptoRecuperos!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">conceptoVariable!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">general!$A$1:$P$11</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="193">
+  <si>
+    <t>i_tipoFactura</t>
+  </si>
+  <si>
+    <t>i_fecha</t>
+  </si>
+  <si>
+    <t>i_numeroFactura</t>
+  </si>
+  <si>
+    <t>i_cliente</t>
+  </si>
+  <si>
+    <t>i_jurisdiccion</t>
+  </si>
+  <si>
+    <t>i_tipoVenta</t>
+  </si>
+  <si>
+    <t>i_mesFacturacion</t>
+  </si>
+  <si>
+    <t>i_montoControl</t>
+  </si>
+  <si>
+    <t>o_montoFacturado</t>
+  </si>
+  <si>
+    <t>o_asiento</t>
+  </si>
+  <si>
+    <t>Factura A</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>0010-00000001</t>
+  </si>
+  <si>
+    <t>FOI TERRUÑOS DE LOS ANDES</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Otras ventas</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>5672456</t>
+  </si>
+  <si>
+    <t>2024-VEN-419</t>
+  </si>
+  <si>
+    <t>0010-00000002</t>
+  </si>
+  <si>
+    <t>GRANAR S.A.C y F.</t>
+  </si>
+  <si>
+    <t>1711627</t>
+  </si>
+  <si>
+    <t>2024-VEN-420</t>
+  </si>
+  <si>
+    <t>0010-00000003</t>
+  </si>
+  <si>
+    <t>AGRISUS SA</t>
+  </si>
+  <si>
+    <t>387345</t>
+  </si>
+  <si>
+    <t>2024-VEN-421</t>
+  </si>
+  <si>
+    <t>0010-00000004</t>
+  </si>
+  <si>
+    <t>CABALGANDO SAFI</t>
+  </si>
+  <si>
+    <t>605458</t>
+  </si>
+  <si>
+    <t>2024-VEN-422</t>
+  </si>
+  <si>
+    <t>0010-00000005</t>
+  </si>
+  <si>
+    <t>FOA AGUAS DE ALTAMIRA</t>
+  </si>
+  <si>
+    <t>1382748</t>
+  </si>
+  <si>
+    <t>1382749</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>0010-00000006</t>
+  </si>
+  <si>
+    <t>LLORENTE HNOS SA</t>
+  </si>
+  <si>
+    <t>1724261</t>
+  </si>
+  <si>
+    <t>1684460</t>
+  </si>
+  <si>
+    <t>0010-00000007</t>
+  </si>
+  <si>
+    <t>LOS NATIVOS S.A.</t>
+  </si>
+  <si>
+    <t>5580457</t>
+  </si>
+  <si>
+    <t>2024-VEN-423</t>
+  </si>
+  <si>
+    <t>0010-00000008</t>
+  </si>
+  <si>
+    <t>FINCAS Y BODEGAS MONTECHEZ S.A.</t>
+  </si>
+  <si>
+    <t>2023845</t>
+  </si>
+  <si>
+    <t>1999120</t>
+  </si>
+  <si>
+    <t>0010-00000009</t>
+  </si>
+  <si>
+    <t>TELLERIA JUAN GABRIEL</t>
+  </si>
+  <si>
+    <t>980713</t>
+  </si>
+  <si>
+    <t>1041417</t>
+  </si>
+  <si>
+    <t>26/04/2025</t>
+  </si>
+  <si>
+    <t>0010-00000010</t>
+  </si>
+  <si>
+    <t>FINCA LAS MAGDALENAS S. A. S.</t>
+  </si>
+  <si>
+    <t>794061</t>
+  </si>
+  <si>
+    <t>773158</t>
+  </si>
   <si>
     <t>usuario</t>
   </si>
   <si>
+    <t>empresa</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
     <t>pablo</t>
   </si>
   <si>
-    <t>empresa</t>
-  </si>
-  <si>
     <t>Servicios Agropecuarios Cuyo S.A.</t>
   </si>
   <si>
-    <t>aca van todos los datos para facturar</t>
+    <t>t_cliente</t>
+  </si>
+  <si>
+    <t>t_centroCosto</t>
+  </si>
+  <si>
+    <t>i_finca</t>
+  </si>
+  <si>
+    <t>t_alicuota</t>
+  </si>
+  <si>
+    <t>i_netoGravado</t>
+  </si>
+  <si>
+    <t>i_descripcion</t>
+  </si>
+  <si>
+    <t>i_tipoItem</t>
+  </si>
+  <si>
+    <t>i_unidades</t>
+  </si>
+  <si>
+    <t>i_cuentaContable</t>
+  </si>
+  <si>
+    <t>altamira</t>
+  </si>
+  <si>
+    <t>la india</t>
+  </si>
+  <si>
+    <t>48140,91</t>
+  </si>
+  <si>
+    <t>SS FINCA</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>414001001</t>
+  </si>
+  <si>
+    <t>123797,88</t>
+  </si>
+  <si>
+    <t>la quebrada</t>
+  </si>
+  <si>
+    <t>439308,38</t>
+  </si>
+  <si>
+    <t>ugarteche</t>
+  </si>
+  <si>
+    <t>los cerrillos</t>
+  </si>
+  <si>
+    <t>444270,25</t>
+  </si>
+  <si>
+    <t>914356,15</t>
+  </si>
+  <si>
+    <t>985719,67</t>
+  </si>
+  <si>
+    <t>Granar SACyF (AB)</t>
+  </si>
+  <si>
+    <t>abemar</t>
+  </si>
+  <si>
+    <t>157359,74</t>
+  </si>
+  <si>
+    <t>la peregrina</t>
+  </si>
+  <si>
+    <t>214799,71</t>
+  </si>
+  <si>
+    <t>el pedregal</t>
+  </si>
+  <si>
+    <t>222714,18</t>
+  </si>
+  <si>
+    <t>449528,35</t>
+  </si>
+  <si>
+    <t>583888,49</t>
+  </si>
+  <si>
+    <t>583186,17</t>
+  </si>
+  <si>
+    <t>mari cla</t>
+  </si>
+  <si>
+    <t>242981,43</t>
+  </si>
+  <si>
+    <t>571407,52</t>
+  </si>
+  <si>
+    <t>los nativos</t>
+  </si>
+  <si>
+    <t>475489,24</t>
+  </si>
+  <si>
+    <t>1104990,67</t>
+  </si>
+  <si>
+    <t>mtcz-los blancos</t>
+  </si>
+  <si>
+    <t>100920,48</t>
+  </si>
+  <si>
+    <t>259524,43</t>
+  </si>
+  <si>
+    <t>las magdalenas</t>
+  </si>
+  <si>
+    <t>204897,04</t>
+  </si>
+  <si>
+    <t>490765,24</t>
+  </si>
+  <si>
+    <t>piedras</t>
+  </si>
+  <si>
+    <t>530084,67</t>
+  </si>
+  <si>
+    <t>1043649,31</t>
+  </si>
+  <si>
+    <t>LABORES FINCA</t>
+  </si>
+  <si>
+    <t>414001003</t>
+  </si>
+  <si>
+    <t>1643188,49</t>
+  </si>
+  <si>
+    <t>1823213,62</t>
+  </si>
+  <si>
+    <t>491987,5</t>
+  </si>
+  <si>
+    <t>528151,26</t>
+  </si>
+  <si>
+    <t>348730,54</t>
+  </si>
+  <si>
+    <t>1044724,78</t>
+  </si>
+  <si>
+    <t>3461962,48</t>
+  </si>
+  <si>
+    <t>765211,91</t>
+  </si>
+  <si>
+    <t>407767,13</t>
+  </si>
+  <si>
+    <t>590149,23</t>
+  </si>
+  <si>
+    <t>i_centroCosto</t>
+  </si>
+  <si>
+    <t>i_alicuota</t>
+  </si>
+  <si>
+    <t>3-MOVILIDAD MARIANO SAVINA</t>
+  </si>
+  <si>
+    <t>IVA (21%)</t>
+  </si>
+  <si>
+    <t>313023,22</t>
+  </si>
+  <si>
+    <t>SS MOVILIDAD MS-EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A &amp; T Y ASOCIADOS SA </t>
+  </si>
+  <si>
+    <t>500378,54</t>
+  </si>
+  <si>
+    <t>21357,27</t>
+  </si>
+  <si>
+    <t>14598,19</t>
+  </si>
+  <si>
+    <t>7227,54</t>
+  </si>
+  <si>
+    <t>69752,04</t>
+  </si>
+  <si>
+    <t>4087,89</t>
+  </si>
+  <si>
+    <t>210767,67</t>
+  </si>
+  <si>
+    <t>672013,28</t>
+  </si>
+  <si>
+    <t>3324,67</t>
+  </si>
+  <si>
+    <t>1-MODULO UGARTECHE</t>
+  </si>
+  <si>
+    <t>7096,87</t>
+  </si>
+  <si>
+    <t>SS ESTACION METEOROLOGICA</t>
+  </si>
+  <si>
+    <t>515301014</t>
+  </si>
+  <si>
+    <t>13252,86</t>
+  </si>
+  <si>
+    <t>EST-ESTRUCTURA</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTICIPO </t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>570101009</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>450000</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>i_iva</t>
+  </si>
+  <si>
+    <t>IVA (10.5%)</t>
+  </si>
+  <si>
+    <t>2-MODULO ALTAMIRA</t>
+  </si>
+  <si>
+    <t>FOA Aguas de Altamira</t>
+  </si>
+  <si>
+    <t>FOI TerruÃ±os de los Andes</t>
+  </si>
+  <si>
+    <t>Granar SACyF</t>
+  </si>
+  <si>
+    <t>Llorente Hnos SA</t>
+  </si>
+  <si>
+    <t>Los Nativos SA</t>
+  </si>
+  <si>
+    <t>Montechez</t>
+  </si>
+  <si>
+    <t>Sona Aldo Guillermo</t>
+  </si>
+  <si>
+    <t>Telleria Juan Gabriel</t>
+  </si>
+  <si>
+    <t>Agrisus</t>
+  </si>
+  <si>
+    <t>AyT</t>
+  </si>
+  <si>
+    <t>Cabalgando</t>
+  </si>
+  <si>
+    <t>TipoFactura</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>CentroCostos</t>
+  </si>
+  <si>
+    <t>TipoItem</t>
+  </si>
+  <si>
+    <t>Factura A Webservice</t>
+  </si>
+  <si>
+    <t>Factura Crédito Electrónica A</t>
+  </si>
+  <si>
+    <t>Factura Crédito Electrónica A Webservice</t>
+  </si>
+  <si>
+    <t>4-MOVILIDAD LEANDRO SAVINA</t>
+  </si>
+  <si>
+    <t>Nota de Crédito A</t>
+  </si>
+  <si>
+    <t>5-MOVILIDAD ESTEBAN GAMUNDI</t>
+  </si>
+  <si>
+    <t>Nota de Crédito A Webservice</t>
+  </si>
+  <si>
+    <t>6-FOI TERRUÑOS DE LOS ANDES</t>
+  </si>
+  <si>
+    <t>7-TELLERIA</t>
+  </si>
+  <si>
+    <t>8-SONA</t>
+  </si>
+  <si>
+    <t>9-LLORENTE</t>
+  </si>
+  <si>
+    <t>10-GRANAR</t>
+  </si>
+  <si>
+    <t>11-LOS NATIVOS</t>
+  </si>
+  <si>
+    <t>12-FOA AGUAS DE ALTAMIRA</t>
+  </si>
+  <si>
+    <t>ADM-ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>Fijo</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Movilidad</t>
+  </si>
+  <si>
+    <t>Recuperos</t>
+  </si>
+  <si>
+    <t>Anticipos</t>
+  </si>
+  <si>
+    <t>formatoNumero</t>
+  </si>
+  <si>
+    <t>controlTablas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +642,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,16 +685,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,51 +1023,910 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="16">
+        <f>L2+M2+N2+O2-P2</f>
+        <v>320120.08999999997</v>
+      </c>
+      <c r="L2" s="14">
+        <f>SUMIF(conceptoFijo!A:A,D2,conceptoFijo!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <f>SUMIF(conceptoVariable!A:A,D2,conceptoVariable!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D2,conceptoMovilidad!I:I)</f>
+        <v>313023.21999999997</v>
+      </c>
+      <c r="O2" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D2,conceptoRecuperos!I:I)</f>
+        <v>7096.87</v>
+      </c>
+      <c r="P2" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D2,conceptoAnticipos!I:I)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="16">
+        <f>L3+M3+N3+O3-P3</f>
+        <v>500378.54</v>
+      </c>
+      <c r="L3" s="14">
+        <f>SUMIF(conceptoFijo!A:A,D3,conceptoFijo!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <f>SUMIF(conceptoVariable!A:A,D3,conceptoVariable!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D3,conceptoMovilidad!I:I)</f>
+        <v>500378.54</v>
+      </c>
+      <c r="O3" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D3,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D3,conceptoAnticipos!I:I)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="16">
+        <f>L4+M4+N4+O4-P4</f>
+        <v>656754.08000000007</v>
+      </c>
+      <c r="L4" s="17">
+        <f>SUMIF(conceptoFijo!A:A,D4,conceptoFijo!J:J)</f>
+        <v>695662.28</v>
+      </c>
+      <c r="M4" s="14">
+        <f>SUMIF(conceptoVariable!A:A,D4,conceptoVariable!J:J)</f>
+        <v>407767.13</v>
+      </c>
+      <c r="N4" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D4,conceptoMovilidad!I:I)</f>
+        <v>3324.67</v>
+      </c>
+      <c r="O4" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D4,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D4,conceptoAnticipos!I:I)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="16">
+        <f>L5+M5+N5+O5-P5</f>
+        <v>1660922.9600000002</v>
+      </c>
+      <c r="L5" s="14">
+        <f>SUMIF(conceptoFijo!A:A,D5,conceptoFijo!J:J)</f>
+        <v>360444.91</v>
+      </c>
+      <c r="M5" s="17">
+        <f>SUMIF(conceptoVariable!A:A,D5,conceptoVariable!J:J)</f>
+        <v>765211.91</v>
+      </c>
+      <c r="N5" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D5,conceptoMovilidad!I:I)</f>
+        <v>672013.28</v>
+      </c>
+      <c r="O5" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D5,conceptoRecuperos!I:I)</f>
+        <v>13252.86</v>
+      </c>
+      <c r="P5" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D5,conceptoAnticipos!I:I)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="16">
+        <f>L6+M6+N6+O6-P6</f>
+        <v>1146945.3700000001</v>
+      </c>
+      <c r="L6" s="14">
+        <f>SUMIF(conceptoFijo!A:A,D6,conceptoFijo!J:J)</f>
+        <v>171938.79</v>
+      </c>
+      <c r="M6" s="17">
+        <f>SUMIF(conceptoVariable!A:A,D6,conceptoVariable!J:J)</f>
+        <v>1043649.31</v>
+      </c>
+      <c r="N6" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D6,conceptoMovilidad!I:I)</f>
+        <v>21357.27</v>
+      </c>
+      <c r="O6" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D6,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D6,conceptoAnticipos!I:I)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="16">
+        <f>L7+M7+N7+O7-P7</f>
+        <v>4764654.7500000009</v>
+      </c>
+      <c r="L7" s="14">
+        <f>SUMIF(conceptoFijo!A:A,D7,conceptoFijo!J:J)</f>
+        <v>2783654.45</v>
+      </c>
+      <c r="M7" s="17">
+        <f>SUMIF(conceptoVariable!A:A,D7,conceptoVariable!J:J)</f>
+        <v>3466402.1100000003</v>
+      </c>
+      <c r="N7" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D7,conceptoMovilidad!I:I)</f>
+        <v>14598.19</v>
+      </c>
+      <c r="O7" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D7,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D7,conceptoAnticipos!I:I)</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="16">
+        <f>L8+M8+N8+O8-P8</f>
+        <v>1452534.13</v>
+      </c>
+      <c r="L8" s="14">
+        <f>SUMIF(conceptoFijo!A:A,D8,conceptoFijo!J:J)</f>
+        <v>1604588.55</v>
+      </c>
+      <c r="M8" s="14">
+        <f>SUMIF(conceptoVariable!A:A,D8,conceptoVariable!J:J)</f>
+        <v>840718.04</v>
+      </c>
+      <c r="N8" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D8,conceptoMovilidad!I:I)</f>
+        <v>7227.54</v>
+      </c>
+      <c r="O8" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D8,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D8,conceptoAnticipos!I:I)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="16">
+        <f>L9+M9+N9+O9-P9</f>
+        <v>1413201.6199999999</v>
+      </c>
+      <c r="L9" s="17">
+        <f>SUMIF(conceptoFijo!A:A,D9,conceptoFijo!J:J)</f>
+        <v>814388.95</v>
+      </c>
+      <c r="M9" s="14">
+        <f>SUMIF(conceptoVariable!A:A,D9,conceptoVariable!J:J)</f>
+        <v>1044724.78</v>
+      </c>
+      <c r="N9" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D9,conceptoMovilidad!I:I)</f>
+        <v>4087.89</v>
+      </c>
+      <c r="O9" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D9,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D9,conceptoAnticipos!I:I)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="16">
+        <f>L10+M10+N10+O10-P10</f>
+        <v>4653210.0599999996</v>
+      </c>
+      <c r="L10" s="14">
+        <f>SUMIF(conceptoFijo!A:A,D10,conceptoFijo!J:J)</f>
+        <v>1580479.91</v>
+      </c>
+      <c r="M10" s="14">
+        <f>SUMIF(conceptoVariable!A:A,D10,conceptoVariable!J:J)</f>
+        <v>3461962.48</v>
+      </c>
+      <c r="N10" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D10,conceptoMovilidad!I:I)</f>
+        <v>210767.67</v>
+      </c>
+      <c r="O10" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D10,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D10,conceptoAnticipos!I:I)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="16">
+        <f>L11+M11+N11+O11-P11</f>
+        <v>878455.60999999987</v>
+      </c>
+      <c r="L11" s="17">
+        <f>SUMIF(conceptoFijo!A:A,D11,conceptoFijo!J:J)</f>
+        <v>734981.71000000008</v>
+      </c>
+      <c r="M11" s="14">
+        <f>SUMIF(conceptoVariable!A:A,D11,conceptoVariable!J:J)</f>
+        <v>590149.23</v>
+      </c>
+      <c r="N11" s="14">
+        <f>SUMIF(conceptoMovilidad!A:A,D11,conceptoMovilidad!I:I)</f>
+        <v>3324.67</v>
+      </c>
+      <c r="O11" s="14">
+        <f>SUMIF(conceptoRecuperos!A:A,D11,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <f>SUMIF(conceptoAnticipos!A:A,D11,conceptoAnticipos!I:I)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
+      <sortCondition ref="D1:D11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Hoja10"/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Hoja11"/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -456,21 +1937,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,4 +1963,2112 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>0.105</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="14">
+        <f>VALUE(E2)</f>
+        <v>204897.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3">
+        <v>0.21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J23" si="0">VALUE(E3)</f>
+        <v>490765.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>0.105</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>100920.48</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <v>0.21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="0"/>
+        <v>259524.43</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>0.105</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>48140.91</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>0.21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>123797.88</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>0.105</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>439308.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>0.105</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>444270.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="0"/>
+        <v>914356.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>0.21</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>985719.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>0.105</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>214799.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>0.105</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="0"/>
+        <v>222714.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>0.21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="0"/>
+        <v>583888.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>0.21</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="0"/>
+        <v>583186.17000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16">
+        <v>0.105</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="0"/>
+        <v>157359.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17">
+        <v>0.21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="0"/>
+        <v>449528.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>0.105</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="0"/>
+        <v>242981.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>0.21</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="0"/>
+        <v>571407.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20">
+        <v>0.105</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="0"/>
+        <v>475489.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21">
+        <v>0.21</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="0"/>
+        <v>1104990.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22">
+        <v>0.105</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="0"/>
+        <v>204897.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23">
+        <v>0.21</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="0"/>
+        <v>530084.67000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>0.21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="14">
+        <f>VALUE(E2)</f>
+        <v>407767.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>0.21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J12" si="0">VALUE(E3)</f>
+        <v>765211.91</v>
+      </c>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>0.21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>1043649.31</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>0.21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="0"/>
+        <v>1643188.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>1823213.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>0.21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>491987.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>0.21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>348730.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9">
+        <v>0.21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>528151.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="0"/>
+        <v>1044724.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11">
+        <v>0.21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>3461962.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12">
+        <v>0.21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>590149.23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="14">
+        <f>VALUE(D2)</f>
+        <v>313023.21999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I12" si="0">VALUE(D3)</f>
+        <v>500378.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="0"/>
+        <v>3324.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="0"/>
+        <v>672013.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="0"/>
+        <v>21357.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>14598.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>7227.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>69752.039999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="0"/>
+        <v>4087.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
+        <v>210767.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>3324.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Hoja6"/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="14">
+        <f>VALUE(D2)</f>
+        <v>7096.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="14">
+        <f>VALUE(D3)</f>
+        <v>13252.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Hoja7"/>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="14">
+        <f>VALUE(D2)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I9" si="0">VALUE(D3)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0600-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H9">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Hoja8"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/DataTables/FACTURACION/EmitirFacturaSacsa.xlsx
+++ b/DataTables/FACTURACION/EmitirFacturaSacsa.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlborAutomation\albor\DataTables\Facturacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F12C9D-08F5-4788-8C8E-83DCA20A17BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABCF6C-C319-4914-A428-BC98DA1B7E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="general" sheetId="1" r:id="rId2"/>
     <sheet name="conceptoFijo" sheetId="3" r:id="rId3"/>
     <sheet name="conceptoVariable" sheetId="4" r:id="rId4"/>
     <sheet name="conceptoMovilidad" sheetId="5" r:id="rId5"/>
@@ -31,14 +31,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">conceptoMovilidad!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">conceptoRecuperos!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">conceptoVariable!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">general!$A$1:$P$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">general!$B$1:$Q$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="185">
   <si>
     <t>i_tipoFactura</t>
   </si>
@@ -94,9 +94,6 @@
     <t>5672456</t>
   </si>
   <si>
-    <t>2024-VEN-419</t>
-  </si>
-  <si>
     <t>0010-00000002</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>1711627</t>
   </si>
   <si>
-    <t>2024-VEN-420</t>
-  </si>
-  <si>
     <t>0010-00000003</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>387345</t>
   </si>
   <si>
-    <t>2024-VEN-421</t>
-  </si>
-  <si>
     <t>0010-00000004</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>605458</t>
   </si>
   <si>
-    <t>2024-VEN-422</t>
-  </si>
-  <si>
     <t>0010-00000005</t>
   </si>
   <si>
@@ -142,12 +130,6 @@
     <t>1382748</t>
   </si>
   <si>
-    <t>1382749</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>0010-00000006</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>1724261</t>
   </si>
   <si>
-    <t>1684460</t>
-  </si>
-  <si>
     <t>0010-00000007</t>
   </si>
   <si>
@@ -169,9 +148,6 @@
     <t>5580457</t>
   </si>
   <si>
-    <t>2024-VEN-423</t>
-  </si>
-  <si>
     <t>0010-00000008</t>
   </si>
   <si>
@@ -181,9 +157,6 @@
     <t>2023845</t>
   </si>
   <si>
-    <t>1999120</t>
-  </si>
-  <si>
     <t>0010-00000009</t>
   </si>
   <si>
@@ -193,9 +166,6 @@
     <t>980713</t>
   </si>
   <si>
-    <t>1041417</t>
-  </si>
-  <si>
     <t>26/04/2025</t>
   </si>
   <si>
@@ -208,9 +178,6 @@
     <t>794061</t>
   </si>
   <si>
-    <t>773158</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -617,6 +584,15 @@
   </si>
   <si>
     <t>controlTablas</t>
+  </si>
+  <si>
+    <t>i_factura</t>
+  </si>
+  <si>
+    <t>GRANAR S.A.C y F. (AB)</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -689,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -703,11 +679,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1022,644 +999,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="16">
-        <f>L2+M2+N2+O2-P2</f>
-        <v>320120.08999999997</v>
-      </c>
-      <c r="L2" s="14">
-        <f>SUMIF(conceptoFijo!A:A,D2,conceptoFijo!J:J)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="14">
-        <f>SUMIF(conceptoVariable!A:A,D2,conceptoVariable!J:J)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D2,conceptoMovilidad!I:I)</f>
-        <v>313023.21999999997</v>
-      </c>
-      <c r="O2" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D2,conceptoRecuperos!I:I)</f>
-        <v>7096.87</v>
-      </c>
-      <c r="P2" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D2,conceptoAnticipos!I:I)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="16">
-        <f>L3+M3+N3+O3-P3</f>
-        <v>500378.54</v>
-      </c>
-      <c r="L3" s="14">
-        <f>SUMIF(conceptoFijo!A:A,D3,conceptoFijo!J:J)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="14">
-        <f>SUMIF(conceptoVariable!A:A,D3,conceptoVariable!J:J)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D3,conceptoMovilidad!I:I)</f>
-        <v>500378.54</v>
-      </c>
-      <c r="O3" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D3,conceptoRecuperos!I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D3,conceptoAnticipos!I:I)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="16">
-        <f>L4+M4+N4+O4-P4</f>
-        <v>656754.08000000007</v>
-      </c>
-      <c r="L4" s="17">
-        <f>SUMIF(conceptoFijo!A:A,D4,conceptoFijo!J:J)</f>
-        <v>695662.28</v>
-      </c>
-      <c r="M4" s="14">
-        <f>SUMIF(conceptoVariable!A:A,D4,conceptoVariable!J:J)</f>
-        <v>407767.13</v>
-      </c>
-      <c r="N4" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D4,conceptoMovilidad!I:I)</f>
-        <v>3324.67</v>
-      </c>
-      <c r="O4" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D4,conceptoRecuperos!I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D4,conceptoAnticipos!I:I)</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="16">
-        <f>L5+M5+N5+O5-P5</f>
-        <v>1660922.9600000002</v>
-      </c>
-      <c r="L5" s="14">
-        <f>SUMIF(conceptoFijo!A:A,D5,conceptoFijo!J:J)</f>
-        <v>360444.91</v>
-      </c>
-      <c r="M5" s="17">
-        <f>SUMIF(conceptoVariable!A:A,D5,conceptoVariable!J:J)</f>
-        <v>765211.91</v>
-      </c>
-      <c r="N5" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D5,conceptoMovilidad!I:I)</f>
-        <v>672013.28</v>
-      </c>
-      <c r="O5" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D5,conceptoRecuperos!I:I)</f>
-        <v>13252.86</v>
-      </c>
-      <c r="P5" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D5,conceptoAnticipos!I:I)</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="16">
-        <f>L6+M6+N6+O6-P6</f>
-        <v>1146945.3700000001</v>
-      </c>
-      <c r="L6" s="14">
-        <f>SUMIF(conceptoFijo!A:A,D6,conceptoFijo!J:J)</f>
-        <v>171938.79</v>
-      </c>
-      <c r="M6" s="17">
-        <f>SUMIF(conceptoVariable!A:A,D6,conceptoVariable!J:J)</f>
-        <v>1043649.31</v>
-      </c>
-      <c r="N6" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D6,conceptoMovilidad!I:I)</f>
-        <v>21357.27</v>
-      </c>
-      <c r="O6" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D6,conceptoRecuperos!I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D6,conceptoAnticipos!I:I)</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="16">
-        <f>L7+M7+N7+O7-P7</f>
-        <v>4764654.7500000009</v>
-      </c>
-      <c r="L7" s="14">
-        <f>SUMIF(conceptoFijo!A:A,D7,conceptoFijo!J:J)</f>
-        <v>2783654.45</v>
-      </c>
-      <c r="M7" s="17">
-        <f>SUMIF(conceptoVariable!A:A,D7,conceptoVariable!J:J)</f>
-        <v>3466402.1100000003</v>
-      </c>
-      <c r="N7" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D7,conceptoMovilidad!I:I)</f>
-        <v>14598.19</v>
-      </c>
-      <c r="O7" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D7,conceptoRecuperos!I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D7,conceptoAnticipos!I:I)</f>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="16">
-        <f>L8+M8+N8+O8-P8</f>
-        <v>1452534.13</v>
-      </c>
-      <c r="L8" s="14">
-        <f>SUMIF(conceptoFijo!A:A,D8,conceptoFijo!J:J)</f>
-        <v>1604588.55</v>
-      </c>
-      <c r="M8" s="14">
-        <f>SUMIF(conceptoVariable!A:A,D8,conceptoVariable!J:J)</f>
-        <v>840718.04</v>
-      </c>
-      <c r="N8" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D8,conceptoMovilidad!I:I)</f>
-        <v>7227.54</v>
-      </c>
-      <c r="O8" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D8,conceptoRecuperos!I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D8,conceptoAnticipos!I:I)</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="16">
-        <f>L9+M9+N9+O9-P9</f>
-        <v>1413201.6199999999</v>
-      </c>
-      <c r="L9" s="17">
-        <f>SUMIF(conceptoFijo!A:A,D9,conceptoFijo!J:J)</f>
-        <v>814388.95</v>
-      </c>
-      <c r="M9" s="14">
-        <f>SUMIF(conceptoVariable!A:A,D9,conceptoVariable!J:J)</f>
-        <v>1044724.78</v>
-      </c>
-      <c r="N9" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D9,conceptoMovilidad!I:I)</f>
-        <v>4087.89</v>
-      </c>
-      <c r="O9" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D9,conceptoRecuperos!I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D9,conceptoAnticipos!I:I)</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="16">
-        <f>L10+M10+N10+O10-P10</f>
-        <v>4653210.0599999996</v>
-      </c>
-      <c r="L10" s="14">
-        <f>SUMIF(conceptoFijo!A:A,D10,conceptoFijo!J:J)</f>
-        <v>1580479.91</v>
-      </c>
-      <c r="M10" s="14">
-        <f>SUMIF(conceptoVariable!A:A,D10,conceptoVariable!J:J)</f>
-        <v>3461962.48</v>
-      </c>
-      <c r="N10" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D10,conceptoMovilidad!I:I)</f>
-        <v>210767.67</v>
-      </c>
-      <c r="O10" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D10,conceptoRecuperos!I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D10,conceptoAnticipos!I:I)</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="16">
-        <f>L11+M11+N11+O11-P11</f>
-        <v>878455.60999999987</v>
-      </c>
-      <c r="L11" s="17">
-        <f>SUMIF(conceptoFijo!A:A,D11,conceptoFijo!J:J)</f>
-        <v>734981.71000000008</v>
-      </c>
-      <c r="M11" s="14">
-        <f>SUMIF(conceptoVariable!A:A,D11,conceptoVariable!J:J)</f>
-        <v>590149.23</v>
-      </c>
-      <c r="N11" s="14">
-        <f>SUMIF(conceptoMovilidad!A:A,D11,conceptoMovilidad!I:I)</f>
-        <v>3324.67</v>
-      </c>
-      <c r="O11" s="14">
-        <f>SUMIF(conceptoRecuperos!A:A,D11,conceptoRecuperos!I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="14">
-        <f>SUMIF(conceptoAnticipos!A:A,D11,conceptoAnticipos!I:I)</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
-      <sortCondition ref="D1:D11"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1683,15 +1062,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1699,87 +1078,87 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1804,16 +1183,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,99 +1200,99 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1922,46 +1301,700 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="15">
+        <f t="shared" ref="L2:L11" si="0">M2+N2+O2+P2-Q2</f>
+        <v>320120.08999999997</v>
+      </c>
+      <c r="M2" s="13">
+        <f>SUMIF(conceptoFijo!A:A,E2,conceptoFijo!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="13">
+        <f>SUMIF(conceptoVariable!A:A,E2,conceptoVariable!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E2,conceptoMovilidad!I:I)</f>
+        <v>313023.21999999997</v>
+      </c>
+      <c r="P2" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E2,conceptoRecuperos!I:I)</f>
+        <v>7096.87</v>
+      </c>
+      <c r="Q2" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E2,conceptoAnticipos!I:I)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="15">
+        <f t="shared" si="0"/>
+        <v>500378.54</v>
+      </c>
+      <c r="M3" s="13">
+        <f>SUMIF(conceptoFijo!A:A,E3,conceptoFijo!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <f>SUMIF(conceptoVariable!A:A,E3,conceptoVariable!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E3,conceptoMovilidad!I:I)</f>
+        <v>500378.54</v>
+      </c>
+      <c r="P3" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E3,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E3,conceptoAnticipos!I:I)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="15">
+        <f t="shared" si="0"/>
+        <v>656754.08000000007</v>
+      </c>
+      <c r="M4" s="16">
+        <f>SUMIF(conceptoFijo!A:A,E4,conceptoFijo!J:J)</f>
+        <v>695662.28</v>
+      </c>
+      <c r="N4" s="13">
+        <f>SUMIF(conceptoVariable!A:A,E4,conceptoVariable!J:J)</f>
+        <v>407767.13</v>
+      </c>
+      <c r="O4" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E4,conceptoMovilidad!I:I)</f>
+        <v>3324.67</v>
+      </c>
+      <c r="P4" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E4,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E4,conceptoAnticipos!I:I)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>1660922.9600000002</v>
+      </c>
+      <c r="M5" s="13">
+        <f>SUMIF(conceptoFijo!A:A,E5,conceptoFijo!J:J)</f>
+        <v>360444.91</v>
+      </c>
+      <c r="N5" s="16">
+        <f>SUMIF(conceptoVariable!A:A,E5,conceptoVariable!J:J)</f>
+        <v>765211.91</v>
+      </c>
+      <c r="O5" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E5,conceptoMovilidad!I:I)</f>
+        <v>672013.28</v>
+      </c>
+      <c r="P5" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E5,conceptoRecuperos!I:I)</f>
+        <v>13252.86</v>
+      </c>
+      <c r="Q5" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E5,conceptoAnticipos!I:I)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="15">
+        <f t="shared" si="0"/>
+        <v>1146945.3700000001</v>
+      </c>
+      <c r="M6" s="13">
+        <f>SUMIF(conceptoFijo!A:A,E6,conceptoFijo!J:J)</f>
+        <v>171938.79</v>
+      </c>
+      <c r="N6" s="16">
+        <f>SUMIF(conceptoVariable!A:A,E6,conceptoVariable!J:J)</f>
+        <v>1043649.31</v>
+      </c>
+      <c r="O6" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E6,conceptoMovilidad!I:I)</f>
+        <v>21357.27</v>
+      </c>
+      <c r="P6" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E6,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E6,conceptoAnticipos!I:I)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="15">
+        <f t="shared" si="0"/>
+        <v>4764654.7500000009</v>
+      </c>
+      <c r="M7" s="13">
+        <f>SUMIF(conceptoFijo!A:A,E7,conceptoFijo!J:J)</f>
+        <v>2783654.45</v>
+      </c>
+      <c r="N7" s="16">
+        <f>SUMIF(conceptoVariable!A:A,E7,conceptoVariable!J:J)</f>
+        <v>3466402.1100000003</v>
+      </c>
+      <c r="O7" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E7,conceptoMovilidad!I:I)</f>
+        <v>14598.19</v>
+      </c>
+      <c r="P7" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E7,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E7,conceptoAnticipos!I:I)</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="15">
+        <f t="shared" si="0"/>
+        <v>1452534.13</v>
+      </c>
+      <c r="M8" s="13">
+        <f>SUMIF(conceptoFijo!A:A,E8,conceptoFijo!J:J)</f>
+        <v>1604588.55</v>
+      </c>
+      <c r="N8" s="13">
+        <f>SUMIF(conceptoVariable!A:A,E8,conceptoVariable!J:J)</f>
+        <v>840718.04</v>
+      </c>
+      <c r="O8" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E8,conceptoMovilidad!I:I)</f>
+        <v>7227.54</v>
+      </c>
+      <c r="P8" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E8,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E8,conceptoAnticipos!I:I)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="15">
+        <f t="shared" si="0"/>
+        <v>1413201.6199999999</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUMIF(conceptoFijo!A:A,E9,conceptoFijo!J:J)</f>
+        <v>814388.95</v>
+      </c>
+      <c r="N9" s="13">
+        <f>SUMIF(conceptoVariable!A:A,E9,conceptoVariable!J:J)</f>
+        <v>1044724.78</v>
+      </c>
+      <c r="O9" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E9,conceptoMovilidad!I:I)</f>
+        <v>4087.89</v>
+      </c>
+      <c r="P9" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E9,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E9,conceptoAnticipos!I:I)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
+        <v>4653210.0599999996</v>
+      </c>
+      <c r="M10" s="13">
+        <f>SUMIF(conceptoFijo!A:A,E10,conceptoFijo!J:J)</f>
+        <v>1580479.91</v>
+      </c>
+      <c r="N10" s="13">
+        <f>SUMIF(conceptoVariable!A:A,E10,conceptoVariable!J:J)</f>
+        <v>3461962.48</v>
+      </c>
+      <c r="O10" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E10,conceptoMovilidad!I:I)</f>
+        <v>210767.67</v>
+      </c>
+      <c r="P10" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E10,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E10,conceptoAnticipos!I:I)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="15">
+        <f t="shared" si="0"/>
+        <v>878455.60999999987</v>
+      </c>
+      <c r="M11" s="16">
+        <f>SUMIF(conceptoFijo!A:A,E11,conceptoFijo!J:J)</f>
+        <v>734981.71000000008</v>
+      </c>
+      <c r="N11" s="13">
+        <f>SUMIF(conceptoVariable!A:A,E11,conceptoVariable!J:J)</f>
+        <v>590149.23</v>
+      </c>
+      <c r="O11" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E11,conceptoMovilidad!I:I)</f>
+        <v>3324.67</v>
+      </c>
+      <c r="P11" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E11,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E11,conceptoAnticipos!I:I)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" ref="L12" si="1">M12+N12+O12+P12-Q12</f>
+        <v>1204791.3900000001</v>
+      </c>
+      <c r="M12" s="13">
+        <f>SUMIF(conceptoFijo!A:A,E12,conceptoFijo!J:J)</f>
+        <v>606888.09</v>
+      </c>
+      <c r="N12" s="13">
+        <f>SUMIF(conceptoVariable!A:A,E12,conceptoVariable!J:J)</f>
+        <v>528151.26</v>
+      </c>
+      <c r="O12" s="13">
+        <f>SUMIF(conceptoMovilidad!A:A,E12,conceptoMovilidad!I:I)</f>
+        <v>69752.039999999994</v>
+      </c>
+      <c r="P12" s="13">
+        <f>SUMIF(conceptoRecuperos!A:A,E12,conceptoRecuperos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>SUMIF(conceptoAnticipos!A:A,E12,conceptoAnticipos!I:I)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:Q11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q11">
+      <sortCondition ref="E1:E11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1970,8 +2003,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,136 +2018,136 @@
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>191</v>
+        <v>59</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>0.105</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="14">
+        <v>65</v>
+      </c>
+      <c r="J2" s="13">
         <f>VALUE(E2)</f>
         <v>204897.04</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>0.21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="14">
+        <v>65</v>
+      </c>
+      <c r="J3" s="13">
         <f t="shared" ref="J3:J23" si="0">VALUE(E3)</f>
         <v>490765.24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>0.105</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="14">
+        <v>65</v>
+      </c>
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
         <v>100920.48</v>
       </c>
@@ -2122,33 +2155,33 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>0.21</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="14">
+        <v>65</v>
+      </c>
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>259524.43</v>
       </c>
@@ -2156,33 +2189,33 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>0.105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="14">
+        <v>65</v>
+      </c>
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>48140.91</v>
       </c>
@@ -2190,33 +2223,33 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>0.21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="14">
+        <v>65</v>
+      </c>
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>123797.88</v>
       </c>
@@ -2227,30 +2260,30 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>0.105</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="14">
+        <v>65</v>
+      </c>
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>439308.38</v>
       </c>
@@ -2260,30 +2293,30 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>0.105</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="14">
+        <v>65</v>
+      </c>
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>444270.25</v>
       </c>
@@ -2293,30 +2326,30 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>0.21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="14">
+        <v>65</v>
+      </c>
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>914356.15</v>
       </c>
@@ -2326,426 +2359,426 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>0.21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="14">
+        <v>65</v>
+      </c>
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>985719.67</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>0.105</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="14">
+        <v>65</v>
+      </c>
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>214799.71</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>0.105</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="14">
+        <v>65</v>
+      </c>
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>222714.18</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>0.21</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="14">
+        <v>65</v>
+      </c>
+      <c r="J14" s="13">
         <f t="shared" si="0"/>
         <v>583888.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>0.21</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="14">
+        <v>65</v>
+      </c>
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>583186.17000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>0.105</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="14">
+        <v>65</v>
+      </c>
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>157359.74</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <v>0.21</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="14">
+        <v>65</v>
+      </c>
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>449528.35</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>0.105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="14">
+        <v>65</v>
+      </c>
+      <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>242981.43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D19">
         <v>0.21</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="14">
+        <v>65</v>
+      </c>
+      <c r="J19" s="13">
         <f t="shared" si="0"/>
         <v>571407.52</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>0.105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="14">
+        <v>65</v>
+      </c>
+      <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>475489.24</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>0.21</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="14">
+        <v>65</v>
+      </c>
+      <c r="J21" s="13">
         <f t="shared" si="0"/>
         <v>1104990.67</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <v>0.105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="14">
+        <v>65</v>
+      </c>
+      <c r="J22" s="13">
         <f t="shared" si="0"/>
         <v>204897.04</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D23">
         <v>0.21</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="14">
+        <v>65</v>
+      </c>
+      <c r="J23" s="13">
         <f t="shared" si="0"/>
         <v>530084.67000000004</v>
       </c>
@@ -2761,7 +2794,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,98 +2813,98 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>191</v>
+        <v>59</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>0.21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="14">
+        <v>100</v>
+      </c>
+      <c r="J2" s="13">
         <f>VALUE(E2)</f>
         <v>407767.13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>0.21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="14">
+        <v>100</v>
+      </c>
+      <c r="J3" s="13">
         <f t="shared" ref="J3:J12" si="0">VALUE(E3)</f>
         <v>765211.91</v>
       </c>
@@ -2879,33 +2912,33 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>0.21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="14">
+        <v>100</v>
+      </c>
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
         <v>1043649.31</v>
       </c>
@@ -2916,30 +2949,30 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>0.21</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="14">
+        <v>100</v>
+      </c>
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>1643188.49</v>
       </c>
@@ -2949,228 +2982,228 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>0.21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="14">
+        <v>100</v>
+      </c>
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>1823213.62</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>0.21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="14">
+        <v>100</v>
+      </c>
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>491987.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <v>0.21</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="14">
+        <v>100</v>
+      </c>
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>348730.54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>0.21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="14">
+        <v>100</v>
+      </c>
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>528151.26</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>0.21</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="14">
+        <v>100</v>
+      </c>
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>1044724.78</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>0.21</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="14">
+        <v>100</v>
+      </c>
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>3461962.48</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <v>0.21</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="14">
+        <v>100</v>
+      </c>
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>590149.23</v>
       </c>
@@ -3190,7 +3223,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,179 +3241,179 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>191</v>
+        <v>59</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="14">
+        <v>65</v>
+      </c>
+      <c r="I2" s="13">
         <f>VALUE(D2)</f>
         <v>313023.21999999997</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="14">
+        <v>65</v>
+      </c>
+      <c r="I3" s="13">
         <f t="shared" ref="I3:I12" si="0">VALUE(D3)</f>
         <v>500378.54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="14">
+        <v>65</v>
+      </c>
+      <c r="I4" s="13">
         <f t="shared" si="0"/>
         <v>3324.67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="14">
+        <v>65</v>
+      </c>
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>672013.28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="14">
+        <v>65</v>
+      </c>
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>21357.27</v>
       </c>
@@ -3390,177 +3423,177 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="14">
+        <v>65</v>
+      </c>
+      <c r="I7" s="13">
         <f t="shared" si="0"/>
         <v>14598.19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="14">
+        <v>65</v>
+      </c>
+      <c r="I8" s="13">
         <f t="shared" si="0"/>
         <v>7227.54</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="14">
+        <v>65</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
         <v>69752.039999999994</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="14">
+        <v>65</v>
+      </c>
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>4087.89</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="14">
+        <v>65</v>
+      </c>
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
         <v>210767.67</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="14">
+        <v>65</v>
+      </c>
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
         <v>3324.67</v>
       </c>
@@ -3592,89 +3625,89 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>191</v>
+        <v>59</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="14">
+        <v>130</v>
+      </c>
+      <c r="I2" s="13">
         <f>VALUE(D2)</f>
         <v>7096.87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="14">
+        <v>130</v>
+      </c>
+      <c r="I3" s="13">
         <f>VALUE(D3)</f>
         <v>13252.86</v>
       </c>
@@ -3690,7 +3723,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3706,119 +3739,119 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>191</v>
+        <v>59</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="14">
+        <v>136</v>
+      </c>
+      <c r="I2" s="13">
         <f>VALUE(D2)</f>
         <v>450000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" s="14">
+        <v>136</v>
+      </c>
+      <c r="I3" s="13">
         <f t="shared" ref="I3:I9" si="0">VALUE(D3)</f>
         <v>150000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="14">
+        <v>136</v>
+      </c>
+      <c r="I4" s="13">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
@@ -3828,147 +3861,147 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="14">
+        <v>136</v>
+      </c>
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="14">
+        <v>136</v>
+      </c>
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="14">
+        <v>136</v>
+      </c>
+      <c r="I7" s="13">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="14">
+        <v>136</v>
+      </c>
+      <c r="I8" s="13">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="14">
+        <v>136</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
@@ -3999,10 +4032,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -4011,7 +4044,7 @@
         <v>0.105</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -4020,7 +4053,7 @@
         <v>0.21</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4045,26 +4078,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/FACTURACION/EmitirFacturaSacsa.xlsx
+++ b/DataTables/FACTURACION/EmitirFacturaSacsa.xlsx
@@ -1,40 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlborAutomation\albor\DataTables\FACTURACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlborAutomation\albor\DataTables\Facturacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A301FC-6274-4590-BEC7-44E322469509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E171292-CD0D-4EC8-B2F4-B43E3A3FA952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
     <sheet name="general" sheetId="2" r:id="rId2"/>
-    <sheet name="conceptoFijo" sheetId="3" r:id="rId3"/>
-    <sheet name="conceptoVariable" sheetId="4" r:id="rId4"/>
-    <sheet name="conceptoMovilidad" sheetId="5" r:id="rId5"/>
-    <sheet name="conceptoRecuperos" sheetId="6" r:id="rId6"/>
-    <sheet name="conceptoAnticipos" sheetId="7" r:id="rId7"/>
-    <sheet name="Traductor_iva" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="Traductor_centroCosto" sheetId="9" state="hidden" r:id="rId9"/>
-    <sheet name="Traductor_cliente" sheetId="10" state="hidden" r:id="rId10"/>
-    <sheet name="Padrones" sheetId="11" r:id="rId11"/>
+    <sheet name="Controles" sheetId="3" r:id="rId3"/>
+    <sheet name="conceptoFijo" sheetId="4" r:id="rId4"/>
+    <sheet name="conceptoVariable" sheetId="5" r:id="rId5"/>
+    <sheet name="conceptoMovilidad" sheetId="6" r:id="rId6"/>
+    <sheet name="conceptoRecuperos" sheetId="7" r:id="rId7"/>
+    <sheet name="conceptoAnticipos" sheetId="8" r:id="rId8"/>
+    <sheet name="Traductor_iva" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="Traductor_centroCosto" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="Traductor_cliente" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="Padrones" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">conceptoAnticipos!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">general!$B$1:$Q$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">conceptoAnticipos!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">general!$B$1:$L$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="207">
   <si>
     <t>usuario</t>
   </si>
@@ -87,6 +88,159 @@
     <t>controlTablas</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Factura A Webservice</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>0003-00001209</t>
+  </si>
+  <si>
+    <t>FOA AGUAS DE ALTAMIRA</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Otras ventas</t>
+  </si>
+  <si>
+    <t>MAYO</t>
+  </si>
+  <si>
+    <t>992224</t>
+  </si>
+  <si>
+    <t>2024-VEN-468</t>
+  </si>
+  <si>
+    <t>0003-00001210</t>
+  </si>
+  <si>
+    <t>GRANAR S.A.C y F. (AB)</t>
+  </si>
+  <si>
+    <t>1275250</t>
+  </si>
+  <si>
+    <t>2024-VEN-469</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>0003-00001218</t>
+  </si>
+  <si>
+    <t>CABALGANDO SAFI</t>
+  </si>
+  <si>
+    <t>657022</t>
+  </si>
+  <si>
+    <t>2024-VEN-477</t>
+  </si>
+  <si>
+    <t>0003-00001219</t>
+  </si>
+  <si>
+    <t>GRANAR S.A.C y F.</t>
+  </si>
+  <si>
+    <t>3297237</t>
+  </si>
+  <si>
+    <t>2024-VEN-478</t>
+  </si>
+  <si>
+    <t>0003-00001211</t>
+  </si>
+  <si>
+    <t>FOI TERRUÑOS DE LOS ANDES</t>
+  </si>
+  <si>
+    <t>5741585</t>
+  </si>
+  <si>
+    <t>2024-VEN-470</t>
+  </si>
+  <si>
+    <t>0003-00001212</t>
+  </si>
+  <si>
+    <t>FINCA LAS MAGDALENAS S. A. S.</t>
+  </si>
+  <si>
+    <t>2120520</t>
+  </si>
+  <si>
+    <t>2024-VEN-471</t>
+  </si>
+  <si>
+    <t>0003-00001213</t>
+  </si>
+  <si>
+    <t>LOS NATIVOS S.A.</t>
+  </si>
+  <si>
+    <t>3609897</t>
+  </si>
+  <si>
+    <t>2024-VEN-472</t>
+  </si>
+  <si>
+    <t>0003-00001214</t>
+  </si>
+  <si>
+    <t>LLORENTE HNOS SA</t>
+  </si>
+  <si>
+    <t>1669695</t>
+  </si>
+  <si>
+    <t>2024-VEN-473</t>
+  </si>
+  <si>
+    <t>0003-00001215</t>
+  </si>
+  <si>
+    <t>FINCAS Y BODEGAS MONTECHEZ S.A.</t>
+  </si>
+  <si>
+    <t>991999</t>
+  </si>
+  <si>
+    <t>2024-VEN-474</t>
+  </si>
+  <si>
+    <t>0003-00001216</t>
+  </si>
+  <si>
+    <t>TELLERIA JUAN GABRIEL</t>
+  </si>
+  <si>
+    <t>2202888</t>
+  </si>
+  <si>
+    <t>2024-VEN-475</t>
+  </si>
+  <si>
+    <t>0003-00001217</t>
+  </si>
+  <si>
+    <t>AGRISUS SA</t>
+  </si>
+  <si>
+    <t>239084</t>
+  </si>
+  <si>
+    <t>2024-VEN-476</t>
+  </si>
+  <si>
     <t>Fijo</t>
   </si>
   <si>
@@ -102,529 +256,364 @@
     <t>Anticipos</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>t_cliente</t>
+  </si>
+  <si>
+    <t>t_centroCosto</t>
+  </si>
+  <si>
+    <t>i_finca</t>
+  </si>
+  <si>
+    <t>t_alicuota</t>
+  </si>
+  <si>
+    <t>i_netoGravado</t>
+  </si>
+  <si>
+    <t>i_descripcion</t>
+  </si>
+  <si>
+    <t>i_tipoItem</t>
+  </si>
+  <si>
+    <t>i_unidades</t>
+  </si>
+  <si>
+    <t>i_cuentaContable</t>
+  </si>
+  <si>
+    <t>formatoNumero</t>
+  </si>
+  <si>
+    <t>ugarteche</t>
+  </si>
+  <si>
+    <t>las magdalenas</t>
+  </si>
+  <si>
+    <t>253666,52</t>
+  </si>
+  <si>
+    <t>SS FINCA</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>414001001</t>
+  </si>
+  <si>
+    <t>559729,95</t>
+  </si>
+  <si>
+    <t>altamira</t>
+  </si>
+  <si>
+    <t>mtcz-los blancos</t>
+  </si>
+  <si>
+    <t>113521,38</t>
+  </si>
+  <si>
+    <t>302465,43</t>
+  </si>
+  <si>
+    <t>la india</t>
+  </si>
+  <si>
+    <t>54151,76</t>
+  </si>
+  <si>
+    <t>144281,52</t>
+  </si>
+  <si>
+    <t>la quebrada</t>
+  </si>
+  <si>
+    <t>494160,25</t>
+  </si>
+  <si>
+    <t>los cerrillos</t>
+  </si>
+  <si>
+    <t>550015,2</t>
+  </si>
+  <si>
+    <t>1244185,27</t>
+  </si>
+  <si>
+    <t>1213640,55</t>
+  </si>
+  <si>
+    <t>la peregrina</t>
+  </si>
+  <si>
+    <t>241619,52</t>
+  </si>
+  <si>
+    <t>el pedregal</t>
+  </si>
+  <si>
+    <t>275724,48</t>
+  </si>
+  <si>
+    <t>907244,89</t>
+  </si>
+  <si>
+    <t>836342,36</t>
+  </si>
+  <si>
+    <t>abemar</t>
+  </si>
+  <si>
+    <t>177007,62</t>
+  </si>
+  <si>
+    <t>635803,18</t>
+  </si>
+  <si>
+    <t>mari cla</t>
+  </si>
+  <si>
+    <t>273320</t>
+  </si>
+  <si>
+    <t>1004611,73</t>
+  </si>
+  <si>
+    <t>los nativos</t>
+  </si>
+  <si>
+    <t>534858,64</t>
+  </si>
+  <si>
+    <t>1393558,09</t>
+  </si>
+  <si>
+    <t>piedras</t>
+  </si>
+  <si>
+    <t>697961,28</t>
+  </si>
+  <si>
+    <t>LABORES FINCA</t>
+  </si>
+  <si>
+    <t>414001003</t>
+  </si>
+  <si>
+    <t>571148,85</t>
+  </si>
+  <si>
+    <t>1475483,64</t>
+  </si>
+  <si>
+    <t>1407410,76</t>
+  </si>
+  <si>
+    <t>141723,3</t>
+  </si>
+  <si>
+    <t>258063,11</t>
+  </si>
+  <si>
+    <t>2559406,87</t>
+  </si>
+  <si>
+    <t>495948,24</t>
+  </si>
+  <si>
+    <t>196625,87</t>
+  </si>
+  <si>
+    <t>972371,15</t>
+  </si>
+  <si>
+    <t>1520538,09</t>
+  </si>
+  <si>
+    <t>i_centroCosto</t>
+  </si>
+  <si>
+    <t>i_alicuota</t>
+  </si>
+  <si>
+    <t>ADM-ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>IVA (21%)</t>
+  </si>
+  <si>
+    <t>189638,95</t>
+  </si>
+  <si>
+    <t>SS MOVILIDAD MS-EG</t>
+  </si>
+  <si>
+    <t>438697,97</t>
+  </si>
+  <si>
+    <t>18325,2</t>
+  </si>
+  <si>
+    <t>16251,18</t>
+  </si>
+  <si>
+    <t>8045,93</t>
+  </si>
+  <si>
+    <t>59849,42</t>
+  </si>
+  <si>
+    <t>4550,78</t>
+  </si>
+  <si>
+    <t>180845,2</t>
+  </si>
+  <si>
+    <t>407126</t>
+  </si>
+  <si>
+    <t>3701,13</t>
+  </si>
+  <si>
+    <t>1-MODULO UGARTECHE</t>
+  </si>
+  <si>
+    <t>7951,72</t>
+  </si>
+  <si>
+    <t>SS ESTACION METEOROLOGICA</t>
+  </si>
+  <si>
+    <t>515301014</t>
+  </si>
+  <si>
+    <t>14849,23</t>
+  </si>
+  <si>
+    <t>2-MODULO ALTAMIRA</t>
+  </si>
+  <si>
+    <t>104295,52</t>
+  </si>
+  <si>
+    <t>RECUPERO COMPRAS SACSA</t>
+  </si>
+  <si>
+    <t>590000001</t>
+  </si>
+  <si>
+    <t>590000008</t>
+  </si>
+  <si>
+    <t>590000002</t>
+  </si>
+  <si>
+    <t>590000003</t>
+  </si>
+  <si>
+    <t>32586,92</t>
+  </si>
+  <si>
+    <t>590000009</t>
+  </si>
+  <si>
+    <t>590000011</t>
+  </si>
+  <si>
+    <t>590000007</t>
+  </si>
+  <si>
+    <t>EST-ESTRUCTURA</t>
+  </si>
+  <si>
+    <t>450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTICIPO </t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>570101009</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>i_iva</t>
+  </si>
+  <si>
+    <t>IVA (10.5%)</t>
+  </si>
+  <si>
+    <t>FOA Aguas de Altamira</t>
+  </si>
+  <si>
+    <t>FOI TerruÃ±os de los Andes</t>
+  </si>
+  <si>
+    <t>Granar SACyF</t>
+  </si>
+  <si>
+    <t>Llorente Hnos SA</t>
+  </si>
+  <si>
+    <t>Los Nativos SA</t>
+  </si>
+  <si>
+    <t>Montechez</t>
+  </si>
+  <si>
+    <t>Sona Aldo Guillermo</t>
+  </si>
+  <si>
+    <t>Telleria Juan Gabriel</t>
+  </si>
+  <si>
+    <t>Agrisus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A &amp; T Y ASOCIADOS SA </t>
+  </si>
+  <si>
+    <t>AyT</t>
+  </si>
+  <si>
+    <t>Cabalgando</t>
+  </si>
+  <si>
+    <t>Granar SACyF (AB)</t>
+  </si>
+  <si>
+    <t>TipoFactura</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>CentroCostos</t>
+  </si>
+  <si>
+    <t>TipoItem</t>
   </si>
   <si>
     <t>Factura A</t>
-  </si>
-  <si>
-    <t>30/04/2024</t>
-  </si>
-  <si>
-    <t>0002-00001045</t>
-  </si>
-  <si>
-    <t>FOA AGUAS DE ALTAMIRA</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Otras ventas</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
-  </si>
-  <si>
-    <t>662099</t>
-  </si>
-  <si>
-    <t>2024-VEN-436</t>
-  </si>
-  <si>
-    <t>0002-00001046</t>
-  </si>
-  <si>
-    <t>GRANAR S.A.C y F. (AB)</t>
-  </si>
-  <si>
-    <t>1595356</t>
-  </si>
-  <si>
-    <t>2024-VEN-437</t>
-  </si>
-  <si>
-    <t>0002-00001047</t>
-  </si>
-  <si>
-    <t>CABALGANDO SAFI</t>
-  </si>
-  <si>
-    <t>994389</t>
-  </si>
-  <si>
-    <t>2024-VEN-438</t>
-  </si>
-  <si>
-    <t>0002-00001048</t>
-  </si>
-  <si>
-    <t>GRANAR S.A.C y F.</t>
-  </si>
-  <si>
-    <t>4613132</t>
-  </si>
-  <si>
-    <t>2024-VEN-439</t>
-  </si>
-  <si>
-    <t>0002-00001049</t>
-  </si>
-  <si>
-    <t>FOI TERRUÑOS DE LOS ANDES</t>
-  </si>
-  <si>
-    <t>6745452</t>
-  </si>
-  <si>
-    <t>2024-VEN-440</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>0002-00001050</t>
-  </si>
-  <si>
-    <t>FINCA LAS MAGDALENAS S. A. S.</t>
-  </si>
-  <si>
-    <t>1674075</t>
-  </si>
-  <si>
-    <t>2024-VEN-441</t>
-  </si>
-  <si>
-    <t>0002-00001051</t>
-  </si>
-  <si>
-    <t>LOS NATIVOS S.A.</t>
-  </si>
-  <si>
-    <t>7449370</t>
-  </si>
-  <si>
-    <t>2024-VEN-442</t>
-  </si>
-  <si>
-    <t>0002-00001052</t>
-  </si>
-  <si>
-    <t>LLORENTE HNOS SA</t>
-  </si>
-  <si>
-    <t>1985480</t>
-  </si>
-  <si>
-    <t>2024-VEN-443</t>
-  </si>
-  <si>
-    <t>0002-00001053</t>
-  </si>
-  <si>
-    <t>FINCAS Y BODEGAS MONTECHEZ S.A.</t>
-  </si>
-  <si>
-    <t>1355847</t>
-  </si>
-  <si>
-    <t>2024-VEN-444</t>
-  </si>
-  <si>
-    <t>0002-00001054</t>
-  </si>
-  <si>
-    <t>TELLERIA JUAN GABRIEL</t>
-  </si>
-  <si>
-    <t>1394176</t>
-  </si>
-  <si>
-    <t>2024-VEN-445</t>
-  </si>
-  <si>
-    <t>0002-00001055</t>
-  </si>
-  <si>
-    <t>AGRISUS SA</t>
-  </si>
-  <si>
-    <t>326479</t>
-  </si>
-  <si>
-    <t>2024-VEN-446</t>
-  </si>
-  <si>
-    <t>t_cliente</t>
-  </si>
-  <si>
-    <t>t_centroCosto</t>
-  </si>
-  <si>
-    <t>i_finca</t>
-  </si>
-  <si>
-    <t>t_alicuota</t>
-  </si>
-  <si>
-    <t>i_netoGravado</t>
-  </si>
-  <si>
-    <t>i_descripcion</t>
-  </si>
-  <si>
-    <t>i_tipoItem</t>
-  </si>
-  <si>
-    <t>i_unidades</t>
-  </si>
-  <si>
-    <t>i_cuentaContable</t>
-  </si>
-  <si>
-    <t>formatoNumero</t>
-  </si>
-  <si>
-    <t>ugarteche</t>
-  </si>
-  <si>
-    <t>las magdalenas</t>
-  </si>
-  <si>
-    <t>250173</t>
-  </si>
-  <si>
-    <t>SS FINCA</t>
-  </si>
-  <si>
-    <t>Concepto</t>
-  </si>
-  <si>
-    <t>414001001</t>
-  </si>
-  <si>
-    <t>823407,87</t>
-  </si>
-  <si>
-    <t>altamira</t>
-  </si>
-  <si>
-    <t>mtcz-los blancos</t>
-  </si>
-  <si>
-    <t>118652,62</t>
-  </si>
-  <si>
-    <t>390250,71</t>
-  </si>
-  <si>
-    <t>la india</t>
-  </si>
-  <si>
-    <t>56599,46</t>
-  </si>
-  <si>
-    <t>186156,7</t>
-  </si>
-  <si>
-    <t>la quebrada</t>
-  </si>
-  <si>
-    <t>516496,63</t>
-  </si>
-  <si>
-    <t>los cerrillos</t>
-  </si>
-  <si>
-    <t>542440,33</t>
-  </si>
-  <si>
-    <t>1364541,12</t>
-  </si>
-  <si>
-    <t>1298887,36</t>
-  </si>
-  <si>
-    <t>la peregrina</t>
-  </si>
-  <si>
-    <t>252540,89</t>
-  </si>
-  <si>
-    <t>el pedregal</t>
-  </si>
-  <si>
-    <t>271927,17</t>
-  </si>
-  <si>
-    <t>815191,93</t>
-  </si>
-  <si>
-    <t>839890,37</t>
-  </si>
-  <si>
-    <t>abemar</t>
-  </si>
-  <si>
-    <t>185008,48</t>
-  </si>
-  <si>
-    <t>694371,48</t>
-  </si>
-  <si>
-    <t>mari cla</t>
-  </si>
-  <si>
-    <t>285674,25</t>
-  </si>
-  <si>
-    <t>888826,89</t>
-  </si>
-  <si>
-    <t>los nativos</t>
-  </si>
-  <si>
-    <t>559034,62</t>
-  </si>
-  <si>
-    <t>1612025,76</t>
-  </si>
-  <si>
-    <t>piedras</t>
-  </si>
-  <si>
-    <t>666437,73</t>
-  </si>
-  <si>
-    <t>373272,0575</t>
-  </si>
-  <si>
-    <t>LABORES FINCA</t>
-  </si>
-  <si>
-    <t>414001003</t>
-  </si>
-  <si>
-    <t>930473,701</t>
-  </si>
-  <si>
-    <t>679124,49</t>
-  </si>
-  <si>
-    <t>753476,33</t>
-  </si>
-  <si>
-    <t>185893,33275</t>
-  </si>
-  <si>
-    <t>1732418,39</t>
-  </si>
-  <si>
-    <t>1639001,13</t>
-  </si>
-  <si>
-    <t>1185680,167</t>
-  </si>
-  <si>
-    <t>369997,72025</t>
-  </si>
-  <si>
-    <t>1404503,06</t>
-  </si>
-  <si>
-    <t>4376649,2375</t>
-  </si>
-  <si>
-    <t>i_centroCosto</t>
-  </si>
-  <si>
-    <t>i_alicuota</t>
-  </si>
-  <si>
-    <t>ADM-ADMINISTRACION</t>
-  </si>
-  <si>
-    <t>IVA (21%)</t>
-  </si>
-  <si>
-    <t>269817,9</t>
-  </si>
-  <si>
-    <t>SS MOVILIDAD MS-EG</t>
-  </si>
-  <si>
-    <t>534677,34</t>
-  </si>
-  <si>
-    <t>26073,05</t>
-  </si>
-  <si>
-    <t>17798,86</t>
-  </si>
-  <si>
-    <t>8812,19</t>
-  </si>
-  <si>
-    <t>85153,63</t>
-  </si>
-  <si>
-    <t>4984,17</t>
-  </si>
-  <si>
-    <t>257306,18</t>
-  </si>
-  <si>
-    <t>579258,02</t>
-  </si>
-  <si>
-    <t>4053,6</t>
-  </si>
-  <si>
-    <t>1-MODULO UGARTECHE</t>
-  </si>
-  <si>
-    <t>SS ESTACION METEOROLOGICA</t>
-  </si>
-  <si>
-    <t>515301014</t>
-  </si>
-  <si>
-    <t>2-MODULO ALTAMIRA</t>
-  </si>
-  <si>
-    <t>287131,79</t>
-  </si>
-  <si>
-    <t>RECUPERO COMPRAS SACSA</t>
-  </si>
-  <si>
-    <t>590000001</t>
-  </si>
-  <si>
-    <t>24132,26</t>
-  </si>
-  <si>
-    <t>590000008</t>
-  </si>
-  <si>
-    <t>6776,86</t>
-  </si>
-  <si>
-    <t>590000002</t>
-  </si>
-  <si>
-    <t>49337,94</t>
-  </si>
-  <si>
-    <t>590000003</t>
-  </si>
-  <si>
-    <t>5724</t>
-  </si>
-  <si>
-    <t>79472,26</t>
-  </si>
-  <si>
-    <t>590000009</t>
-  </si>
-  <si>
-    <t>590000011</t>
-  </si>
-  <si>
-    <t>24132,22</t>
-  </si>
-  <si>
-    <t>590000007</t>
-  </si>
-  <si>
-    <t>EST-ESTRUCTURA</t>
-  </si>
-  <si>
-    <t>450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTICIPO </t>
-  </si>
-  <si>
-    <t>Descuento</t>
-  </si>
-  <si>
-    <t>570101009</t>
-  </si>
-  <si>
-    <t>150000</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>i_iva</t>
-  </si>
-  <si>
-    <t>IVA (10.5%)</t>
-  </si>
-  <si>
-    <t>FOA Aguas de Altamira</t>
-  </si>
-  <si>
-    <t>FOI TerruÃ±os de los Andes</t>
-  </si>
-  <si>
-    <t>Granar SACyF</t>
-  </si>
-  <si>
-    <t>Llorente Hnos SA</t>
-  </si>
-  <si>
-    <t>Los Nativos SA</t>
-  </si>
-  <si>
-    <t>Montechez</t>
-  </si>
-  <si>
-    <t>Sona Aldo Guillermo</t>
-  </si>
-  <si>
-    <t>Telleria Juan Gabriel</t>
-  </si>
-  <si>
-    <t>Agrisus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A &amp; T Y ASOCIADOS SA </t>
-  </si>
-  <si>
-    <t>AyT</t>
-  </si>
-  <si>
-    <t>Cabalgando</t>
-  </si>
-  <si>
-    <t>Granar SACyF (AB)</t>
-  </si>
-  <si>
-    <t>TipoFactura</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>CentroCostos</t>
-  </si>
-  <si>
-    <t>TipoItem</t>
-  </si>
-  <si>
-    <t>Factura A Webservice</t>
   </si>
   <si>
     <t>Factura Crédito Electrónica A</t>
@@ -700,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,12 +705,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -761,10 +744,11 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1124,6 +1108,51 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Hoja10"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1147,98 +1176,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1246,8 +1275,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Hoja11"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1263,27 +1292,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
         <v>87</v>
@@ -1291,88 +1320,88 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1383,31 +1412,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="10" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1432,7 +1458,7 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -1444,644 +1470,843 @@
       <c r="L1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" s="14">
+        <v>914719.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L3" s="14">
+        <v>1069286.0900000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="14">
-        <v>552101.26749999996</v>
-      </c>
-      <c r="M2" s="12">
-        <v>242756.16</v>
-      </c>
-      <c r="N2" s="15">
-        <v>373272.05749999988</v>
-      </c>
-      <c r="O2" s="12">
-        <v>26073.05</v>
-      </c>
-      <c r="P2" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="14">
-        <v>1334531.3102500001</v>
-      </c>
-      <c r="M3" s="12">
-        <v>879379.96</v>
-      </c>
-      <c r="N3" s="12">
-        <v>369997.72025000001</v>
-      </c>
-      <c r="O3" s="12">
-        <v>85153.63</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="L4" s="14">
+        <v>438697.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="14">
-        <v>821809.12999999989</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>534677.34</v>
-      </c>
-      <c r="P4" s="12">
-        <v>287131.78999999998</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="L5" s="14">
+        <v>2737296.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="14">
-        <v>3858018.037</v>
-      </c>
-      <c r="M5" s="12">
-        <v>2179550.36</v>
-      </c>
-      <c r="N5" s="12">
-        <v>2590183.227</v>
-      </c>
-      <c r="O5" s="12">
-        <v>8812.19</v>
-      </c>
-      <c r="P5" s="12">
-        <v>79472.259999999995</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="L6" s="14">
+        <v>4835722.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J7" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="14">
-        <v>5666645.7600000007</v>
-      </c>
-      <c r="M6" s="12">
-        <v>3722365.44</v>
-      </c>
-      <c r="N6" s="15">
-        <v>3371419.52</v>
-      </c>
-      <c r="O6" s="12">
-        <v>17798.86</v>
-      </c>
-      <c r="P6" s="12">
-        <v>55061.94</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="L7" s="14">
+        <v>1774508.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L8" s="14">
+        <v>3029800.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="14">
-        <v>1405243.06</v>
-      </c>
-      <c r="M7" s="15">
-        <v>1073580.8700000001</v>
-      </c>
-      <c r="N7" s="12">
-        <v>753476.33</v>
-      </c>
-      <c r="O7" s="12">
-        <v>4053.6</v>
-      </c>
-      <c r="P7" s="12">
-        <v>24132.26</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="I9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
         <v>55</v>
       </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L9" s="14">
+        <v>1403631.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="14">
-        <v>6205015.7974999994</v>
-      </c>
-      <c r="M8" s="12">
-        <v>2171060.38</v>
-      </c>
-      <c r="N8" s="12">
-        <v>4376649.2374999998</v>
-      </c>
-      <c r="O8" s="12">
-        <v>257306.18</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="I10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L10" s="14">
+        <v>829685.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="14">
-        <v>1665683.0109999999</v>
-      </c>
-      <c r="M9" s="15">
-        <v>1174501.1399999999</v>
-      </c>
-      <c r="N9" s="12">
-        <v>930473.70099999988</v>
-      </c>
-      <c r="O9" s="12">
-        <v>4984.17</v>
-      </c>
-      <c r="P9" s="12">
-        <v>5724</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="I11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
         <v>63</v>
       </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L11" s="14">
+        <v>1842581.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="14">
-        <v>1130831.54275</v>
-      </c>
-      <c r="M10" s="12">
-        <v>508903.33</v>
-      </c>
-      <c r="N10" s="15">
-        <v>185893.33275</v>
-      </c>
-      <c r="O10" s="12">
-        <v>579258.02</v>
-      </c>
-      <c r="P10" s="12">
-        <v>6776.86</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="I12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
         <v>67</v>
       </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="14">
-        <v>1173921.04</v>
-      </c>
-      <c r="M11" s="15">
-        <v>916610.73</v>
-      </c>
-      <c r="N11" s="12">
-        <v>679124.49</v>
-      </c>
-      <c r="O11" s="12">
-        <v>4053.6</v>
-      </c>
-      <c r="P11" s="12">
-        <v>24132.22</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" t="s">
-        <v>72</v>
-      </c>
       <c r="L12" s="14">
-        <v>269817.90000000002</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12">
-        <v>269817.90000000002</v>
-      </c>
-      <c r="P12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>197590.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Q11" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q12">
+  <autoFilter ref="B1:L11" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L12">
       <sortCondition ref="D1:D11"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{038A1095-71AC-4895-8F54-F127D19F863E}">
-          <x14:formula1>
-            <xm:f>Padrones!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B12</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="14">
+        <f>+C2+D2+E2</f>
+        <v>914719.76</v>
+      </c>
+      <c r="C2" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A2,conceptoFijo!$J:$J)</f>
+        <v>198433.28</v>
+      </c>
+      <c r="D2" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A2,conceptoVariable!$J:$J)</f>
+        <v>697961.28</v>
+      </c>
+      <c r="E2" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A2,conceptoMovilidad!$I:$I)</f>
+        <v>18325.2</v>
+      </c>
+      <c r="F2" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A2,conceptoRecuperos!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A2,conceptoAnticipos!$I:$I)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="14">
+        <f t="shared" ref="B3:B9" si="0">+C3+D3+E3-G3</f>
+        <v>1069286.0900000001</v>
+      </c>
+      <c r="C3" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A3,conceptoFijo!$J:$J)</f>
+        <v>812810.8</v>
+      </c>
+      <c r="D3" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A3,conceptoVariable!$J:$J)</f>
+        <v>196625.87</v>
+      </c>
+      <c r="E3" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A3,conceptoMovilidad!$I:$I)</f>
+        <v>59849.42</v>
+      </c>
+      <c r="F3" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A3,conceptoRecuperos!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A3,conceptoAnticipos!$I:$I)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14">
+        <f t="shared" si="0"/>
+        <v>438697.97</v>
+      </c>
+      <c r="C4" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A4,conceptoFijo!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A4,conceptoVariable!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A4,conceptoMovilidad!$I:$I)</f>
+        <v>438697.97</v>
+      </c>
+      <c r="F4" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A4,conceptoRecuperos!$J:$J)</f>
+        <v>104295.52</v>
+      </c>
+      <c r="G4" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A4,conceptoAnticipos!$I:$I)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="14">
+        <f t="shared" si="0"/>
+        <v>2737296.5700000003</v>
+      </c>
+      <c r="C5" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A5,conceptoFijo!$J:$J)</f>
+        <v>2260931.25</v>
+      </c>
+      <c r="D5" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A5,conceptoVariable!$J:$J)</f>
+        <v>1468319.3900000001</v>
+      </c>
+      <c r="E5" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A5,conceptoMovilidad!$I:$I)</f>
+        <v>8045.93</v>
+      </c>
+      <c r="F5" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A5,conceptoRecuperos!$J:$J)</f>
+        <v>32586.92</v>
+      </c>
+      <c r="G5" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A5,conceptoAnticipos!$I:$I)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="14">
+        <f t="shared" si="0"/>
+        <v>4835722.43</v>
+      </c>
+      <c r="C6" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A6,conceptoFijo!$J:$J)</f>
+        <v>3502001.2699999996</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A6,conceptoVariable!$J:$J)</f>
+        <v>2817469.98</v>
+      </c>
+      <c r="E6" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A6,conceptoMovilidad!$I:$I)</f>
+        <v>16251.18</v>
+      </c>
+      <c r="F6" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A6,conceptoRecuperos!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A6,conceptoAnticipos!$I:$I)</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14">
+        <f t="shared" si="0"/>
+        <v>1774508.3599999999</v>
+      </c>
+      <c r="C7" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A7,conceptoFijo!$J:$J)</f>
+        <v>813396.47</v>
+      </c>
+      <c r="D7" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A7,conceptoVariable!$J:$J)</f>
+        <v>1407410.76</v>
+      </c>
+      <c r="E7" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A7,conceptoMovilidad!$I:$I)</f>
+        <v>3701.13</v>
+      </c>
+      <c r="F7" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A7,conceptoRecuperos!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A7,conceptoAnticipos!$I:$I)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="14">
+        <f t="shared" si="0"/>
+        <v>3029800.0200000005</v>
+      </c>
+      <c r="C8" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A8,conceptoFijo!$J:$J)</f>
+        <v>1928416.73</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A8,conceptoVariable!$J:$J)</f>
+        <v>1520538.09</v>
+      </c>
+      <c r="E8" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A8,conceptoMovilidad!$I:$I)</f>
+        <v>180845.2</v>
+      </c>
+      <c r="F8" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A8,conceptoRecuperos!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A8,conceptoAnticipos!$I:$I)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="14">
+        <f t="shared" si="0"/>
+        <v>1403631.36</v>
+      </c>
+      <c r="C9" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A9,conceptoFijo!$J:$J)</f>
+        <v>1277931.73</v>
+      </c>
+      <c r="D9" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A9,conceptoVariable!$J:$J)</f>
+        <v>571148.85</v>
+      </c>
+      <c r="E9" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A9,conceptoMovilidad!$I:$I)</f>
+        <v>4550.78</v>
+      </c>
+      <c r="F9" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A9,conceptoRecuperos!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A9,conceptoAnticipos!$I:$I)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="14">
+        <f>+C10+D10+E10-G10+F10</f>
+        <v>829685.34</v>
+      </c>
+      <c r="C10" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A10,conceptoFijo!$J:$J)</f>
+        <v>415986.81</v>
+      </c>
+      <c r="D10" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A10,conceptoVariable!$J:$J)</f>
+        <v>141723.29999999999</v>
+      </c>
+      <c r="E10" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A10,conceptoMovilidad!$I:$I)</f>
+        <v>407126</v>
+      </c>
+      <c r="F10" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A10,conceptoRecuperos!$J:$J)</f>
+        <v>14849.23</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A10,conceptoAnticipos!$I:$I)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="14">
+        <f>+C11+D11+E11-G11</f>
+        <v>1842581.2399999998</v>
+      </c>
+      <c r="C11" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A11,conceptoFijo!$J:$J)</f>
+        <v>813396.47</v>
+      </c>
+      <c r="D11" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A11,conceptoVariable!$J:$J)</f>
+        <v>1475483.64</v>
+      </c>
+      <c r="E11" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A11,conceptoMovilidad!$I:$I)</f>
+        <v>3701.13</v>
+      </c>
+      <c r="F11" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A11,conceptoRecuperos!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A11,conceptoAnticipos!$I:$I)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="14">
+        <f>+C12+D12+E12-G12+F12</f>
+        <v>197590.67</v>
+      </c>
+      <c r="C12" s="12">
+        <f>SUMIF(conceptoFijo!$A:$A,A12,conceptoFijo!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <f>SUMIF(conceptoVariable!$A:$A,Controles!A12,conceptoVariable!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <f>SUMIF(conceptoMovilidad!$A:$A,A12,conceptoMovilidad!$I:$I)</f>
+        <v>189638.95</v>
+      </c>
+      <c r="F12" s="12">
+        <f>SUMIF(conceptoRecuperos!$B:$B,A12,conceptoRecuperos!$J:$J)</f>
+        <v>7951.72</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUMIF(conceptoAnticipos!$A:$A,Controles!A12,conceptoAnticipos!$I:$I)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
+        <f t="shared" ref="B13:G13" si="1">SUM(B2:B12)</f>
+        <v>19073519.809999999</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" si="1"/>
+        <v>12023304.810000001</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="1"/>
+        <v>10296681.16</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="1"/>
+        <v>1330732.8899999999</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="1"/>
+        <v>159683.39000000001</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="1"/>
+        <v>4690000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2357,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -2160,12 +2385,12 @@
       </c>
       <c r="J2" s="12">
         <f t="shared" ref="J2:J23" si="0">VALUE(E2)</f>
-        <v>250173</v>
+        <v>253666.52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -2193,12 +2418,12 @@
       </c>
       <c r="J3" s="12">
         <f t="shared" si="0"/>
-        <v>823407.87</v>
+        <v>559729.94999999995</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -2226,13 +2451,13 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>118652.62</v>
+        <v>113521.38</v>
       </c>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -2260,13 +2485,13 @@
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>390250.71</v>
+        <v>302465.43</v>
       </c>
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
@@ -2294,13 +2519,13 @@
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>56599.46</v>
+        <v>54151.76</v>
       </c>
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
@@ -2328,13 +2553,13 @@
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>186156.7</v>
+        <v>144281.51999999999</v>
       </c>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
@@ -2362,12 +2587,12 @@
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>516496.63</v>
+        <v>494160.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -2395,12 +2620,12 @@
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>542440.32999999996</v>
+        <v>550015.19999999995</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
@@ -2428,12 +2653,12 @@
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>1364541.12</v>
+        <v>1244185.27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -2461,12 +2686,12 @@
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>1298887.3600000001</v>
+        <v>1213640.55</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
@@ -2494,12 +2719,12 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>252540.89</v>
+        <v>241619.52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -2527,12 +2752,12 @@
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>271927.17</v>
+        <v>275724.48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>90</v>
@@ -2560,12 +2785,12 @@
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>815191.93</v>
+        <v>907244.89</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -2593,12 +2818,12 @@
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>839890.37</v>
+        <v>836342.36</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>90</v>
@@ -2626,12 +2851,12 @@
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>185008.48</v>
+        <v>177007.62</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>90</v>
@@ -2659,12 +2884,12 @@
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>694371.48</v>
+        <v>635803.18000000005</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
@@ -2692,12 +2917,12 @@
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>285674.25</v>
+        <v>273320</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>90</v>
@@ -2725,12 +2950,12 @@
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>888826.89</v>
+        <v>1004611.73</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
@@ -2758,12 +2983,12 @@
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>559034.62</v>
+        <v>534858.64</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
@@ -2791,12 +3016,12 @@
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>1612025.76</v>
+        <v>1393558.09</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -2824,12 +3049,12 @@
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>250173</v>
+        <v>253666.52</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -2841,7 +3066,7 @@
         <v>0.21</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
         <v>86</v>
@@ -2857,7 +3082,7 @@
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>666437.73</v>
+        <v>559729.94999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2865,13 +3090,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +3147,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -2934,28 +3159,28 @@
         <v>0.21</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
         <v>120</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" ref="J2:J12" si="0">VALUE(E2)</f>
-        <v>373272.0575</v>
+        <v>697961.28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
@@ -2967,29 +3192,29 @@
         <v>0.21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J3" s="12">
         <f t="shared" si="0"/>
-        <v>930473.701</v>
+        <v>571148.85</v>
       </c>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -3001,29 +3226,29 @@
         <v>0.21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>679124.49</v>
+        <v>1475483.64</v>
       </c>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -3035,28 +3260,28 @@
         <v>0.21</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>753476.33</v>
+        <v>1407410.76</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
@@ -3068,28 +3293,28 @@
         <v>0.21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>185893.33275</v>
+        <v>141723.29999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
@@ -3101,28 +3326,28 @@
         <v>0.21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>1732418.39</v>
+        <v>258063.11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -3134,28 +3359,28 @@
         <v>0.21</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>1639001.13</v>
+        <v>2559406.87</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
@@ -3167,28 +3392,28 @@
         <v>0.21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>1185680.1669999999</v>
+        <v>495948.24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
@@ -3200,28 +3425,28 @@
         <v>0.21</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>369997.72025000001</v>
+        <v>196625.87</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -3233,28 +3458,28 @@
         <v>0.21</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>1404503.06</v>
+        <v>972371.15</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
@@ -3266,23 +3491,23 @@
         <v>0.21</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>4376649.2374999998</v>
+        <v>1520538.09</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
@@ -3294,13 +3519,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,10 +3546,10 @@
         <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>77</v>
@@ -3347,19 +3572,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>87</v>
@@ -3372,25 +3597,25 @@
       </c>
       <c r="I2" s="12">
         <f t="shared" ref="I2:I12" si="0">VALUE(D2)</f>
-        <v>269817.90000000002</v>
+        <v>189638.95</v>
       </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
-        <v>136</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
         <v>87</v>
@@ -3403,25 +3628,25 @@
       </c>
       <c r="I3" s="12">
         <f t="shared" si="0"/>
-        <v>534677.34</v>
+        <v>438697.97</v>
       </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -3434,25 +3659,25 @@
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>26073.05</v>
+        <v>18325.2</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
@@ -3465,25 +3690,25 @@
       </c>
       <c r="I5" s="12">
         <f t="shared" si="0"/>
-        <v>17798.86</v>
+        <v>16251.18</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
         <v>135</v>
       </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -3496,25 +3721,25 @@
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>8812.19</v>
+        <v>8045.93</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" t="s">
-        <v>136</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
@@ -3527,25 +3752,25 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" si="0"/>
-        <v>85153.63</v>
+        <v>59849.42</v>
       </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
         <v>135</v>
       </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
@@ -3558,25 +3783,25 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>4984.17</v>
+        <v>4550.78</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
         <v>87</v>
@@ -3589,25 +3814,25 @@
       </c>
       <c r="I9" s="12">
         <f t="shared" si="0"/>
-        <v>257306.18</v>
+        <v>180845.2</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
         <v>135</v>
       </c>
-      <c r="C10" t="s">
-        <v>136</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -3620,25 +3845,25 @@
       </c>
       <c r="I10" s="12">
         <f t="shared" si="0"/>
-        <v>579258.02</v>
+        <v>407126</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
         <v>135</v>
       </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
         <v>87</v>
@@ -3651,25 +3876,25 @@
       </c>
       <c r="I11" s="12">
         <f t="shared" si="0"/>
-        <v>4053.6</v>
+        <v>3701.13</v>
       </c>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -3682,7 +3907,7 @@
       </c>
       <c r="I12" s="12">
         <f t="shared" si="0"/>
-        <v>4053.6</v>
+        <v>3701.13</v>
       </c>
       <c r="K12" s="7"/>
     </row>
@@ -3691,13 +3916,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,10 +3944,10 @@
         <v>73</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>77</v>
@@ -3745,16 +3970,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>149</v>
@@ -3770,21 +3998,24 @@
       </c>
       <c r="J2" s="12">
         <f t="shared" ref="J2:J11" si="0">VALUE(E2)</f>
-        <v>0</v>
+        <v>7951.72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>149</v>
@@ -3800,27 +4031,27 @@
       </c>
       <c r="J3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14849.23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
         <v>87</v>
@@ -3829,31 +4060,28 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>287131.78999999998</v>
+        <v>104295.52</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
         <v>87</v>
@@ -3866,60 +4094,54 @@
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>24132.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>6776.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
         <v>87</v>
@@ -3928,31 +4150,28 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>49337.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
@@ -3961,31 +4180,31 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>5724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
         <v>87</v>
@@ -3994,64 +4213,58 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>79472.259999999995</v>
+        <v>32586.92</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>5724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G11" t="s">
         <v>87</v>
@@ -4060,11 +4273,11 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>24132.22</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4072,13 +4285,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4097,10 +4310,10 @@
         <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>77</v>
@@ -4123,28 +4336,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="I2" s="12">
         <f t="shared" ref="I2:I9" si="0">VALUE(D2)</f>
@@ -4153,28 +4366,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="I3" s="12">
         <f t="shared" si="0"/>
@@ -4183,28 +4396,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
@@ -4213,28 +4426,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="0"/>
@@ -4243,28 +4456,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
@@ -4273,28 +4486,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" si="0"/>
@@ -4303,28 +4516,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
@@ -4333,28 +4546,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="I9" s="12">
         <f t="shared" si="0"/>
@@ -4365,7 +4578,7 @@
       <c r="E21" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000006000000}">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H9">
       <sortCondition ref="A1"/>
     </sortState>
@@ -4374,8 +4587,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4390,7 +4603,7 @@
         <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -4399,7 +4612,7 @@
         <v>0.105</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -4408,55 +4621,10 @@
         <v>0.21</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-</worksheet>
 </file>